--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="2">
@@ -408,22 +408,22 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="3">
@@ -433,13 +433,13 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>400</v>
@@ -448,7 +448,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="4">
@@ -458,22 +458,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="5">
@@ -483,22 +483,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="6">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="7">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="8">
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="9">
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="10">
@@ -608,22 +608,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="11">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>400</v>
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="12">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="13">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="14">
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="15">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="16">
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="17">
@@ -783,22 +783,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="18">
@@ -808,22 +808,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>140</v>
@@ -842,13 +842,13 @@
         <v>300</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="20">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="21">
@@ -883,22 +883,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="22">
@@ -908,22 +908,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="23">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>400</v>
@@ -948,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="24">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="25">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="26">
@@ -1008,22 +1008,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="27">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="28">
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="29">
@@ -1083,22 +1083,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="30">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="31">
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="32">
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="33">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="34">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="35">
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="36">
@@ -1258,22 +1258,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="37">
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="38">
@@ -1308,22 +1308,22 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="39">
@@ -1333,22 +1333,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="40">
@@ -1358,22 +1358,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="41">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="42">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="43">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="44">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="45">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="46">
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="47">
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="48">
@@ -1558,22 +1558,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="49">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="50">
@@ -1608,22 +1608,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7354068792621217</v>
       </c>
     </row>
     <row r="51">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="52">
@@ -1658,22 +1658,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="53">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="54">
@@ -1708,22 +1708,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="55">
@@ -1733,22 +1733,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="56">
@@ -1758,22 +1758,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>400</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="57">
@@ -1783,22 +1783,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="58">
@@ -1808,22 +1808,22 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="59">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="60">
@@ -1858,22 +1858,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="61">
@@ -1883,22 +1883,22 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="62">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="63">
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7290525062353289</v>
       </c>
     </row>
     <row r="64">
@@ -1958,13 +1958,13 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>500</v>
@@ -1973,7 +1973,7 @@
         <v>17</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7125252774678512</v>
       </c>
     </row>
     <row r="65">
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>500</v>
@@ -1998,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7125252774678512</v>
       </c>
     </row>
     <row r="66">
@@ -2008,13 +2008,13 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>500</v>
@@ -2023,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7125252774678512</v>
       </c>
     </row>
     <row r="67">
@@ -2033,22 +2033,22 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="68">
@@ -2058,22 +2058,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="69">
@@ -2083,22 +2083,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="70">
@@ -2108,22 +2108,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="71">
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="72">
@@ -2158,22 +2158,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="73">
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="74">
@@ -2208,22 +2208,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.312008342640481</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="75">
@@ -2233,22 +2233,22 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066945889870671</v>
       </c>
     </row>
     <row r="76">
@@ -2258,22 +2258,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="77">
@@ -2283,22 +2283,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="78">
@@ -2308,22 +2308,22 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="79">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="80">
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="81">
@@ -2386,19 +2386,19 @@
         <v>50</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="82">
@@ -2411,19 +2411,19 @@
         <v>50</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="83">
@@ -2433,22 +2433,22 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="84">
@@ -2458,22 +2458,22 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="85">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="86">
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="87">
@@ -2533,22 +2533,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="88">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="89">
@@ -2583,22 +2583,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1.311113782779315</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="90">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="91">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="92">
@@ -2658,22 +2658,22 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="93">
@@ -2683,22 +2683,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="94">
@@ -2708,22 +2708,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="95">
@@ -2733,22 +2733,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="96">
@@ -2758,22 +2758,22 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="97">
@@ -2783,22 +2783,22 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="98">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="99">
@@ -2833,22 +2833,22 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="100">
@@ -2858,22 +2858,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="101">
@@ -2883,22 +2883,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="102">
@@ -2911,19 +2911,19 @@
         <v>50</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="103">
@@ -2933,22 +2933,22 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="104">
@@ -2958,22 +2958,22 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="105">
@@ -2983,22 +2983,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="106">
@@ -3008,22 +3008,22 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="107">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="108">
@@ -3058,22 +3058,22 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="109">
@@ -3083,22 +3083,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="110">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="111">
@@ -3133,22 +3133,22 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="112">
@@ -3158,22 +3158,22 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="113">
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="114">
@@ -3208,22 +3208,22 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="115">
@@ -3233,22 +3233,22 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="116">
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>900</v>
@@ -3273,7 +3273,7 @@
         <v>18</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7066244495211634</v>
       </c>
     </row>
     <row r="117">
@@ -3286,19 +3286,19 @@
         <v>60</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063406417772425</v>
       </c>
     </row>
     <row r="118">
@@ -3308,22 +3308,22 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063406417772425</v>
       </c>
     </row>
     <row r="119">
@@ -3333,22 +3333,22 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063406417772425</v>
       </c>
     </row>
     <row r="120">
@@ -3358,22 +3358,22 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063208428549418</v>
       </c>
     </row>
     <row r="121">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.70631001074822</v>
       </c>
     </row>
     <row r="122">
@@ -3408,22 +3408,22 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.70631001074822</v>
       </c>
     </row>
     <row r="123">
@@ -3433,22 +3433,22 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.70631001074822</v>
       </c>
     </row>
     <row r="124">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.70631001074822</v>
       </c>
     </row>
     <row r="125">
@@ -3483,22 +3483,22 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063096440426543</v>
       </c>
     </row>
     <row r="126">
@@ -3508,22 +3508,22 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7063096440426543</v>
       </c>
     </row>
     <row r="127">
@@ -3533,22 +3533,22 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7061314998699024</v>
       </c>
     </row>
     <row r="128">
@@ -3558,22 +3558,22 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7061314998699024</v>
       </c>
     </row>
     <row r="129">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7061314998699024</v>
       </c>
     </row>
     <row r="130">
@@ -3608,22 +3608,22 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7043426813331116</v>
       </c>
     </row>
     <row r="131">
@@ -3636,19 +3636,19 @@
         <v>50</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7043426813331116</v>
       </c>
     </row>
     <row r="132">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7032938588875565</v>
       </c>
     </row>
     <row r="133">
@@ -3683,22 +3683,22 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="134">
@@ -3708,22 +3708,22 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="135">
@@ -3733,22 +3733,22 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="136">
@@ -3758,22 +3758,22 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="137">
@@ -3783,22 +3783,22 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="138">
@@ -3808,22 +3808,22 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="139">
@@ -3833,22 +3833,22 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="140">
@@ -3858,22 +3858,22 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>1.307560422836031</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="141">
@@ -3883,22 +3883,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="142">
@@ -3908,22 +3908,22 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="143">
@@ -3933,22 +3933,22 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="144">
@@ -3958,22 +3958,22 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="145">
@@ -3983,22 +3983,22 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="146">
@@ -4008,22 +4008,22 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>1.304160054568598</v>
+        <v>0.7031407854146825</v>
       </c>
     </row>
     <row r="147">
@@ -4033,22 +4033,22 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="148">
@@ -4058,22 +4058,22 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="149">
@@ -4083,22 +4083,22 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="150">
@@ -4108,22 +4108,22 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="151">
@@ -4133,22 +4133,22 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="152">
@@ -4158,22 +4158,22 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="153">
@@ -4183,22 +4183,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="154">
@@ -4208,22 +4208,22 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1.303980164398441</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="155">
@@ -4233,22 +4233,22 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.7030267329218282</v>
       </c>
     </row>
     <row r="156">
@@ -4258,22 +4258,22 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="157">
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="158">
@@ -4308,22 +4308,22 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="159">
@@ -4333,22 +4333,22 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="160">
@@ -4358,22 +4358,22 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="161">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>1.287606848897142</v>
+        <v>0.697912751749901</v>
       </c>
     </row>
     <row r="162">
@@ -4408,22 +4408,22 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1.276307421700321</v>
+        <v>0.6977555308977142</v>
       </c>
     </row>
     <row r="163">
@@ -4433,22 +4433,22 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>1.276307421700321</v>
+        <v>0.6977555308977142</v>
       </c>
     </row>
     <row r="164">
@@ -4458,22 +4458,22 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>1.276307421700321</v>
+        <v>0.6969231116191442</v>
       </c>
     </row>
     <row r="165">
@@ -4483,22 +4483,22 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>1.24540554317215</v>
+        <v>0.6969231116191442</v>
       </c>
     </row>
     <row r="166">
@@ -4508,22 +4508,22 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>1.24540554317215</v>
+        <v>0.6964246968216706</v>
       </c>
     </row>
     <row r="167">
@@ -4533,22 +4533,22 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>1.24540554317215</v>
+        <v>0.6792368774646981</v>
       </c>
     </row>
     <row r="168">
@@ -4561,19 +4561,19 @@
         <v>20</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1.23574909681803</v>
+        <v>0.6792368774646981</v>
       </c>
     </row>
     <row r="169">
@@ -4586,19 +4586,19 @@
         <v>20</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>1.23574909681803</v>
+        <v>0.6792368774646981</v>
       </c>
     </row>
     <row r="170">
@@ -4608,22 +4608,22 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>1.173881379497412</v>
+        <v>0.6768607416869055</v>
       </c>
     </row>
     <row r="171">
@@ -4633,22 +4633,22 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>1.173881379497412</v>
+        <v>0.6768607416869055</v>
       </c>
     </row>
     <row r="172">
@@ -4658,22 +4658,22 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>1.155714891940864</v>
+        <v>0.6768607416869055</v>
       </c>
     </row>
     <row r="173">
@@ -4683,22 +4683,22 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>1.155714891940864</v>
+        <v>0.6768607416869055</v>
       </c>
     </row>
     <row r="174">
@@ -4708,22 +4708,22 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6768607416869055</v>
       </c>
     </row>
     <row r="175">
@@ -4733,22 +4733,22 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6707774221955046</v>
       </c>
     </row>
     <row r="176">
@@ -4758,22 +4758,22 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6707774221955046</v>
       </c>
     </row>
     <row r="177">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6707774221955046</v>
       </c>
     </row>
     <row r="178">
@@ -4808,22 +4808,22 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6697800679658511</v>
       </c>
     </row>
     <row r="179">
@@ -4833,22 +4833,22 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1.142891092358296</v>
+        <v>0.6676516454336632</v>
       </c>
     </row>
     <row r="180">
@@ -4858,22 +4858,22 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>1.110224971808897</v>
+        <v>0.6651820151156769</v>
       </c>
     </row>
     <row r="181">
@@ -4883,22 +4883,22 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>1.110224971808897</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="182">
@@ -4908,22 +4908,22 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1.110224971808897</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="183">
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="184">
@@ -4958,22 +4958,22 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="185">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="186">
@@ -5008,22 +5008,22 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.6650583825186783</v>
       </c>
     </row>
     <row r="187">
@@ -5033,22 +5033,22 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.5148843500256198</v>
       </c>
     </row>
     <row r="188">
@@ -5058,22 +5058,22 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.5148843500256198</v>
       </c>
     </row>
     <row r="189">
@@ -5083,22 +5083,22 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>1.098724444586181</v>
+        <v>0.3883463330698013</v>
       </c>
     </row>
     <row r="190">
@@ -5108,22 +5108,22 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0.9964971550077206</v>
+        <v>0.3883463330698013</v>
       </c>
     </row>
     <row r="191">
@@ -5133,22 +5133,22 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3883463330698013</v>
       </c>
     </row>
     <row r="192">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="193">
@@ -5183,22 +5183,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="194">
@@ -5208,22 +5208,22 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="195">
@@ -5233,22 +5233,22 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="196">
@@ -5258,22 +5258,22 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="197">
@@ -5283,22 +5283,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0.5879550554519655</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="198">
@@ -5314,16 +5314,16 @@
         <v>110</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0.421671206091388</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="199">
@@ -5339,16 +5339,16 @@
         <v>110</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>0.421671206091388</v>
+        <v>0.3202071759937863</v>
       </c>
     </row>
     <row r="200">
@@ -5361,19 +5361,19 @@
         <v>30</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>0.421671206091388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -383,22 +383,25 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="2">
@@ -408,22 +411,25 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +439,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="4">
@@ -458,22 +467,25 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="5">
@@ -483,22 +495,25 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="6">
@@ -508,22 +523,25 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="7">
@@ -533,22 +551,25 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="8">
@@ -558,22 +579,25 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="9">
@@ -583,22 +607,25 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.89443259038022</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8290401561409454</v>
       </c>
     </row>
     <row r="10">
@@ -608,22 +635,25 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.892562983038915</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.825639035195763</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +663,25 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.892562983038915</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.825639035195763</v>
       </c>
     </row>
     <row r="12">
@@ -658,22 +691,25 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.892562983038915</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.825639035195763</v>
       </c>
     </row>
     <row r="13">
@@ -683,22 +719,25 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.892562983038915</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.825639035195763</v>
       </c>
     </row>
     <row r="14">
@@ -708,22 +747,25 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.857328467800452</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8703282773356658</v>
       </c>
     </row>
     <row r="15">
@@ -733,22 +775,25 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.838498198945585</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8355488186119168</v>
       </c>
     </row>
     <row r="16">
@@ -758,22 +803,25 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.838498198945585</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8355488186119168</v>
       </c>
     </row>
     <row r="17">
@@ -783,22 +831,25 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.838498198945585</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8355488186119168</v>
       </c>
     </row>
     <row r="18">
@@ -808,22 +859,25 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.833783022057108</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8269509198226328</v>
       </c>
     </row>
     <row r="19">
@@ -833,22 +887,25 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="20">
@@ -858,22 +915,25 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="21">
@@ -883,22 +943,25 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="22">
@@ -908,22 +971,25 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="23">
@@ -933,22 +999,25 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="24">
@@ -958,22 +1027,25 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="25">
@@ -983,22 +1055,25 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.821924215899071</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.805523503513346</v>
       </c>
     </row>
     <row r="26">
@@ -1008,22 +1083,25 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.789885009983478</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7405160311023937</v>
       </c>
     </row>
     <row r="27">
@@ -1033,22 +1111,25 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.787004640032651</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7440615703225186</v>
       </c>
     </row>
     <row r="28">
@@ -1058,22 +1139,25 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.787004640032651</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7440615703225186</v>
       </c>
     </row>
     <row r="29">
@@ -1083,22 +1167,25 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.787004640032651</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7440615703225186</v>
       </c>
     </row>
     <row r="30">
@@ -1108,22 +1195,25 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.787004640032651</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7440615703225186</v>
       </c>
     </row>
     <row r="31">
@@ -1133,22 +1223,25 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.785944933906771</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8550711736114703</v>
       </c>
     </row>
     <row r="32">
@@ -1158,22 +1251,25 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.785944933906771</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8550711736114703</v>
       </c>
     </row>
     <row r="33">
@@ -1183,22 +1279,25 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.785944933906771</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8550711736114703</v>
       </c>
     </row>
     <row r="34">
@@ -1208,22 +1307,25 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="35">
@@ -1233,22 +1335,25 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="36">
@@ -1258,22 +1363,25 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="37">
@@ -1283,22 +1391,25 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="38">
@@ -1308,22 +1419,25 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="39">
@@ -1333,22 +1447,25 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="40">
@@ -1358,22 +1475,25 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="41">
@@ -1383,22 +1503,25 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="42">
@@ -1408,22 +1531,25 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="43">
@@ -1433,22 +1559,25 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="44">
@@ -1458,22 +1587,25 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="45">
@@ -1483,22 +1615,25 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="46">
@@ -1508,22 +1643,25 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="47">
@@ -1533,22 +1671,25 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="48">
@@ -1558,22 +1699,25 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.744890169798123</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.007819740663775</v>
       </c>
     </row>
     <row r="49">
@@ -1583,22 +1727,25 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.708092761423953</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.576053540055557</v>
       </c>
     </row>
     <row r="50">
@@ -1608,22 +1755,25 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.7354068792621217</v>
+        <v>1.708092761423953</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.576053540055557</v>
       </c>
     </row>
     <row r="51">
@@ -1633,22 +1783,25 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.708092761423953</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.576053540055557</v>
       </c>
     </row>
     <row r="52">
@@ -1658,22 +1811,25 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.681217620976226</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.172474663015055</v>
       </c>
     </row>
     <row r="53">
@@ -1683,22 +1839,25 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.681217620976226</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.172474663015055</v>
       </c>
     </row>
     <row r="54">
@@ -1708,22 +1867,25 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.681217620976226</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.172474663015055</v>
       </c>
     </row>
     <row r="55">
@@ -1733,22 +1895,25 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.681217620976226</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.172474663015055</v>
       </c>
     </row>
     <row r="56">
@@ -1758,22 +1923,25 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.681217620976226</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.172474663015055</v>
       </c>
     </row>
     <row r="57">
@@ -1783,22 +1951,25 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.677919121538995</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5677690580038315</v>
       </c>
     </row>
     <row r="58">
@@ -1808,22 +1979,25 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.677919121538995</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5677690580038315</v>
       </c>
     </row>
     <row r="59">
@@ -1833,22 +2007,25 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="60">
@@ -1858,22 +2035,25 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="61">
@@ -1883,22 +2063,25 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="62">
@@ -1908,22 +2091,25 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="63">
@@ -1933,22 +2119,25 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.7290525062353289</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="64">
@@ -1958,22 +2147,25 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.7125252774678512</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="65">
@@ -1983,22 +2175,25 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.7125252774678512</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="66">
@@ -2008,22 +2203,25 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.7125252774678512</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="67">
@@ -2033,22 +2231,25 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="68">
@@ -2058,22 +2259,25 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="69">
@@ -2083,22 +2287,25 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="70">
@@ -2108,22 +2315,25 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="71">
@@ -2133,22 +2343,25 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="72">
@@ -2158,22 +2371,25 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D72" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="73">
@@ -2183,22 +2399,25 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="74">
@@ -2208,22 +2427,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C74" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D74" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="75">
@@ -2233,22 +2455,25 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.7066945889870671</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="76">
@@ -2258,22 +2483,25 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="77">
@@ -2283,22 +2511,25 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="78">
@@ -2308,22 +2539,25 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="79">
@@ -2336,19 +2570,22 @@
         <v>60</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="80">
@@ -2358,22 +2595,25 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="81">
@@ -2383,22 +2623,25 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="82">
@@ -2408,22 +2651,25 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="83">
@@ -2433,22 +2679,25 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.618330275595686</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4815189593341245</v>
       </c>
     </row>
     <row r="84">
@@ -2458,22 +2707,25 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.618330275595686</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.4815189593341245</v>
       </c>
     </row>
     <row r="85">
@@ -2483,22 +2735,25 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.618330275595686</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.4815189593341245</v>
       </c>
     </row>
     <row r="86">
@@ -2508,22 +2763,25 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.618330275595686</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.4815189593341245</v>
       </c>
     </row>
     <row r="87">
@@ -2533,22 +2791,25 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.618330275595686</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.4815189593341245</v>
       </c>
     </row>
     <row r="88">
@@ -2558,22 +2819,25 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.588949234297788</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.4416062749110167</v>
       </c>
     </row>
     <row r="89">
@@ -2583,22 +2847,25 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>1.539571642651554</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.3784181822451308</v>
       </c>
     </row>
     <row r="90">
@@ -2608,22 +2875,25 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.6081280230892379</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1704494288172382</v>
       </c>
     </row>
     <row r="91">
@@ -2636,19 +2906,22 @@
         <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.6081280230892379</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1704494288172382</v>
       </c>
     </row>
     <row r="92">
@@ -2658,22 +2931,25 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.6081280230892379</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.1704494288172382</v>
       </c>
     </row>
     <row r="93">
@@ -2683,22 +2959,25 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.6081280230892379</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.1704494288172382</v>
       </c>
     </row>
     <row r="94">
@@ -2708,22 +2987,25 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.6081280230892379</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.1704494288172382</v>
       </c>
     </row>
     <row r="95">
@@ -2733,22 +3015,25 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.4021624961410512</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.1386335080911409</v>
       </c>
     </row>
     <row r="96">
@@ -2758,22 +3043,25 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.4021624961410512</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.1386335080911409</v>
       </c>
     </row>
     <row r="97">
@@ -2783,22 +3071,25 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.1781570068833651</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.1144023275372727</v>
       </c>
     </row>
     <row r="98">
@@ -2808,22 +3099,25 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.1781570068833651</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.1144023275372727</v>
       </c>
     </row>
     <row r="99">
@@ -2833,22 +3127,25 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.1781570068833651</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1144023275372727</v>
       </c>
     </row>
     <row r="100">
@@ -2858,22 +3155,25 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.7066244495211634</v>
+        <v>0.1781570068833651</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.1144023275372727</v>
       </c>
     </row>
     <row r="101">

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,25 +383,25 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.1316690578827818</v>
+        <v>0.00653876240915154</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.7215820487266071</v>
+        <v>0.2511653242510495</v>
       </c>
     </row>
     <row r="2">
@@ -411,25 +411,25 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.1316690578827818</v>
+        <v>0.00653876240915154</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.7215820487266071</v>
+        <v>0.2511653242510495</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.1316690578827818</v>
+        <v>0.00653876240915154</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.7215820487266071</v>
+        <v>0.2511653242510495</v>
       </c>
     </row>
     <row r="4">
@@ -470,22 +470,22 @@
         <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.1122513461031597</v>
+        <v>0.00653876240915154</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.7831440891522031</v>
+        <v>0.2511653242510495</v>
       </c>
     </row>
     <row r="5">
@@ -498,22 +498,22 @@
         <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.1122513461031597</v>
+        <v>0.00653876240915154</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.7831440891522031</v>
+        <v>0.2511653242510495</v>
       </c>
     </row>
     <row r="6">
@@ -526,22 +526,22 @@
         <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.1121566118851169</v>
+        <v>0.005069571021851256</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.7865498239917252</v>
+        <v>0.2490905352908803</v>
       </c>
     </row>
     <row r="7">
@@ -551,25 +551,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.1121566118851169</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.7865498239917252</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="8">
@@ -579,25 +581,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.1121566118851169</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.7865498239917252</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="9">
@@ -607,25 +611,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.1121566118851169</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.7865498239917252</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="10">
@@ -635,25 +641,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.1121566118851169</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.7865498239917252</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="11">
@@ -663,25 +671,27 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.1104082586937517</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.6964397517669749</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="12">
@@ -691,25 +701,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +731,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="14">
@@ -747,25 +761,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="15">
@@ -775,25 +791,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="16">
@@ -803,25 +821,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="17">
@@ -831,25 +851,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="18">
@@ -859,25 +881,27 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="19">
@@ -887,25 +911,27 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1103089802117701</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.69630690573752</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="20">
@@ -915,25 +941,27 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.1093551639800965</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.7342963178597571</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="21">
@@ -943,25 +971,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.1093551639800965</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.7342963178597571</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="22">
@@ -971,25 +1001,27 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="23">
@@ -999,25 +1031,27 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="24">
@@ -1027,25 +1061,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="25">
@@ -1055,25 +1091,27 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="26">
@@ -1083,25 +1121,27 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="27">
@@ -1111,25 +1151,27 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1068223282253111</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.7753875963654691</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="28">
@@ -1139,25 +1181,27 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>15</v>
+        <v>1500</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1013071212824148</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.7642705678539541</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="29">
@@ -1167,25 +1211,27 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>15</v>
+        <v>1500</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.1013071212824148</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.7642705678539541</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="30">
@@ -1195,25 +1241,27 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>15</v>
+        <v>1500</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1013071212824148</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.7642705678539541</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="31">
@@ -1223,25 +1271,27 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>14</v>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.07854940230755662</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.6773131173630671</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="32">
@@ -1251,25 +1301,27 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>14</v>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.07854940230755662</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.6773131173630671</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="33">
@@ -1279,25 +1331,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>14</v>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.07854940230755662</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.6773131173630671</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1361,27 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>16</v>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="35">
@@ -1335,25 +1391,27 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="36">
@@ -1363,25 +1421,27 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="37">
@@ -1391,25 +1451,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="38">
@@ -1419,25 +1481,27 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="39">
@@ -1447,25 +1511,27 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="40">
@@ -1475,25 +1541,27 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="41">
@@ -1503,25 +1571,27 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="42">
@@ -1531,25 +1601,27 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="43">
@@ -1559,25 +1631,27 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="44">
@@ -1587,25 +1661,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="45">
@@ -1615,25 +1691,27 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="46">
@@ -1643,25 +1721,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="47">
@@ -1671,25 +1751,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="48">
@@ -1699,25 +1781,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="49">
@@ -1727,25 +1811,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="50">
@@ -1755,25 +1841,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="51">
@@ -1783,25 +1871,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="52">
@@ -1811,10 +1901,10 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>650</v>
@@ -1822,14 +1912,16 @@
       <c r="E52" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>19</v>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="53">
@@ -1839,10 +1931,10 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>650</v>
@@ -1850,14 +1942,16 @@
       <c r="E53" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>19</v>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="54">
@@ -1867,25 +1961,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="55">
@@ -1895,25 +1991,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="56">
@@ -1923,25 +2021,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="57">
@@ -1951,25 +2051,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="58">
@@ -1979,25 +2081,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>19</v>
+        <v>1500</v>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.07825214423512281</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.85819480882725</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="59">
@@ -2007,25 +2111,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.07454176849770681</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.8519532475609528</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="60">
@@ -2035,25 +2141,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.07454176849770681</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.8519532475609528</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="61">
@@ -2063,25 +2171,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.07454176849770681</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.8519532475609528</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="62">
@@ -2091,25 +2201,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.07454176849770681</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.8519532475609528</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="63">
@@ -2119,25 +2231,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.06914611904376043</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.8433806347013318</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="64">
@@ -2147,25 +2261,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.06914611904376043</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.8433806347013318</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="65">
@@ -2175,25 +2291,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F65" s="0" t="n">
-        <v>14</v>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.06752174863254735</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.8411660228941071</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="66">
@@ -2203,25 +2321,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>14</v>
+        <v>1500</v>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.05948559666304878</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.8320119613025871</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="67">
@@ -2231,25 +2351,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>14</v>
+        <v>1500</v>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.05948559666304878</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.8320119613025871</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="68">
@@ -2259,25 +2381,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>14</v>
+        <v>1500</v>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.05948559666304878</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.8320119613025871</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="69">
@@ -2287,25 +2411,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="70">
@@ -2315,25 +2441,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="71">
@@ -2343,25 +2471,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="72">
@@ -2371,25 +2501,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="73">
@@ -2399,25 +2531,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="74">
@@ -2427,25 +2561,27 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.05925828941660176</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.8286699718535928</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="75">
@@ -2455,25 +2591,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.05307350561091375</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.7529814056870274</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="76">
@@ -2483,25 +2621,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.03515701999435428</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.7922763355947009</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="77">
@@ -2511,25 +2651,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.006378795612952293</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.743666186243062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="78">
@@ -2539,25 +2681,27 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.006378795612952293</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.743666186243062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="79">
@@ -2567,25 +2711,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.006378795612952293</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.743666186243062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="80">
@@ -2595,25 +2741,27 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="81">
@@ -2623,25 +2771,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="82">
@@ -2651,25 +2801,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="83">
@@ -2679,25 +2831,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="84">
@@ -2707,25 +2861,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="85">
@@ -2735,25 +2891,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="86">
@@ -2763,25 +2921,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>-0.002081979234091791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.5963793893391074</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="87">
@@ -2791,25 +2951,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>14</v>
+        <v>1500</v>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>-0.1630028367206642</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.4912467537783035</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="88">
@@ -2819,25 +2981,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="89">
@@ -2847,25 +3011,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="90">
@@ -2875,25 +3041,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="91">
@@ -2903,25 +3071,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="92">
@@ -2931,25 +3101,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="93">
@@ -2959,25 +3131,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="94">
@@ -2987,25 +3161,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="95">
@@ -3015,25 +3191,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="96">
@@ -3043,25 +3221,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="97">
@@ -3071,25 +3251,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="98">
@@ -3099,25 +3281,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="99">
@@ -3127,25 +3311,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="100">
@@ -3155,25 +3341,27 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>11</v>
+        <v>1500</v>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-0.549917711846469</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.3816018903348609</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,25 +383,25 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.00653876240915154</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.2511653242510495</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="2">
@@ -411,25 +411,25 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.00653876240915154</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.2511653242510495</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.00653876240915154</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.2511653242510495</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="4">
@@ -467,25 +467,25 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.00653876240915154</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.2511653242510495</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="5">
@@ -495,25 +495,25 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.00653876240915154</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.2511653242510495</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="6">
@@ -523,25 +523,25 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.005069571021851256</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.2490905352908803</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="7">
@@ -551,27 +551,25 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="8">
@@ -581,27 +579,25 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="9">
@@ -611,27 +607,25 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="10">
@@ -641,27 +635,25 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="11">
@@ -671,27 +663,25 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="12">
@@ -701,27 +691,25 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="13">
@@ -731,27 +719,25 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="14">
@@ -761,27 +747,25 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="15">
@@ -791,27 +775,25 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.244413427289157</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2695881310553759</v>
       </c>
     </row>
     <row r="16">
@@ -824,24 +806,22 @@
         <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237740108149825</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2681104790351593</v>
       </c>
     </row>
     <row r="17">
@@ -854,24 +834,22 @@
         <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237740108149825</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2681104790351593</v>
       </c>
     </row>
     <row r="18">
@@ -881,27 +859,25 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237607716414854</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2767017544132918</v>
       </c>
     </row>
     <row r="19">
@@ -911,27 +887,25 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237607716414854</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2767017544132918</v>
       </c>
     </row>
     <row r="20">
@@ -941,27 +915,25 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237607716414854</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2767017544132918</v>
       </c>
     </row>
     <row r="21">
@@ -971,27 +943,25 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.237607716414854</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2767017544132918</v>
       </c>
     </row>
     <row r="22">
@@ -1001,27 +971,25 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.235280995882571</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2947830154254353</v>
       </c>
     </row>
     <row r="23">
@@ -1031,27 +999,25 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.235280995882571</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2947830154254353</v>
       </c>
     </row>
     <row r="24">
@@ -1064,24 +1030,22 @@
         <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.235280995882571</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2947830154254353</v>
       </c>
     </row>
     <row r="25">
@@ -1091,27 +1055,25 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.235280995882571</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2947830154254353</v>
       </c>
     </row>
     <row r="26">
@@ -1121,27 +1083,25 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.235280995882571</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2947830154254353</v>
       </c>
     </row>
     <row r="27">
@@ -1154,24 +1114,22 @@
         <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233287206941826</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.3018727490557107</v>
       </c>
     </row>
     <row r="28">
@@ -1184,24 +1142,22 @@
         <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233287206941826</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.3018727490557107</v>
       </c>
     </row>
     <row r="29">
@@ -1214,24 +1170,22 @@
         <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233140182804032</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2720840250308308</v>
       </c>
     </row>
     <row r="30">
@@ -1244,24 +1198,22 @@
         <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233140182804032</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2720840250308308</v>
       </c>
     </row>
     <row r="31">
@@ -1274,24 +1226,22 @@
         <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233140182804032</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2720840250308308</v>
       </c>
     </row>
     <row r="32">
@@ -1304,24 +1254,22 @@
         <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.233140182804032</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2720840250308308</v>
       </c>
     </row>
     <row r="33">
@@ -1331,27 +1279,25 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G33" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173681096724451</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.216107166400483</v>
       </c>
     </row>
     <row r="34">
@@ -1361,27 +1307,25 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G34" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173681096724451</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.216107166400483</v>
       </c>
     </row>
     <row r="35">
@@ -1391,27 +1335,25 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G35" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173681096724451</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.216107166400483</v>
       </c>
     </row>
     <row r="36">
@@ -1421,27 +1363,25 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G36" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173447810844346</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2235783425926449</v>
       </c>
     </row>
     <row r="37">
@@ -1451,27 +1391,25 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G37" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173447810844346</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2235783425926449</v>
       </c>
     </row>
     <row r="38">
@@ -1481,27 +1419,25 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G38" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.173447810844346</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2235783425926449</v>
       </c>
     </row>
     <row r="39">
@@ -1511,13 +1447,13 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1500</v>
@@ -1528,10 +1464,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="40">
@@ -1541,16 +1477,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1558,10 +1494,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="41">
@@ -1571,16 +1507,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1588,10 +1524,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="42">
@@ -1601,16 +1537,16 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
@@ -1618,10 +1554,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="43">
@@ -1631,16 +1567,16 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1648,10 +1584,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="44">
@@ -1661,16 +1597,16 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
@@ -1678,10 +1614,10 @@
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="45">
@@ -1691,13 +1627,13 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1500</v>
@@ -1708,10 +1644,10 @@
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="46">
@@ -1721,16 +1657,16 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
@@ -1738,10 +1674,10 @@
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="47">
@@ -1751,16 +1687,16 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
@@ -1768,10 +1704,10 @@
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="48">
@@ -1781,16 +1717,16 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
@@ -1798,10 +1734,10 @@
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="49">
@@ -1811,16 +1747,16 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
@@ -1828,10 +1764,10 @@
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="50">
@@ -1841,16 +1777,16 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
@@ -1858,10 +1794,10 @@
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="51">
@@ -1871,16 +1807,16 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
@@ -1888,10 +1824,10 @@
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="52">
@@ -1901,16 +1837,16 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
@@ -1918,10 +1854,10 @@
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="53">
@@ -1931,16 +1867,16 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
@@ -1948,10 +1884,10 @@
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="54">
@@ -1961,16 +1897,16 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
@@ -1978,10 +1914,10 @@
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="55">
@@ -1991,16 +1927,16 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -2008,10 +1944,10 @@
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="56">
@@ -2021,16 +1957,16 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -2038,10 +1974,10 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="57">
@@ -2051,16 +1987,16 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
@@ -2068,10 +2004,10 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="58">
@@ -2081,16 +2017,16 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
@@ -2098,10 +2034,10 @@
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="59">
@@ -2111,16 +2047,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -2128,10 +2064,10 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="60">
@@ -2141,13 +2077,13 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1500</v>
@@ -2158,10 +2094,10 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="61">
@@ -2171,16 +2107,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2188,10 +2124,10 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="62">
@@ -2201,16 +2137,16 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
@@ -2218,10 +2154,10 @@
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="63">
@@ -2231,16 +2167,16 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -2248,10 +2184,10 @@
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="64">
@@ -2261,16 +2197,16 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
@@ -2278,10 +2214,10 @@
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="65">
@@ -2291,16 +2227,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -2308,10 +2244,10 @@
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="66">
@@ -2321,16 +2257,16 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
@@ -2338,10 +2274,10 @@
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="67">
@@ -2351,16 +2287,16 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -2368,10 +2304,10 @@
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="68">
@@ -2381,27 +2317,25 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F68" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.103974614598401</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2186111237809278</v>
       </c>
     </row>
     <row r="69">
@@ -2411,27 +2345,25 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.103974614598401</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2186111237809278</v>
       </c>
     </row>
     <row r="70">
@@ -2441,27 +2373,25 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.103974614598401</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2186111237809278</v>
       </c>
     </row>
     <row r="71">
@@ -2471,27 +2401,25 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.103974614598401</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2186111237809278</v>
       </c>
     </row>
     <row r="72">
@@ -2501,27 +2429,25 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="73">
@@ -2531,27 +2457,25 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="74">
@@ -2561,27 +2485,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="75">
@@ -2591,27 +2513,25 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="76">
@@ -2624,24 +2544,22 @@
         <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="77">
@@ -2651,27 +2569,25 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="78">
@@ -2684,24 +2600,22 @@
         <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="79">
@@ -2711,27 +2625,25 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.096502658529826</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.4027949390884675</v>
       </c>
     </row>
     <row r="80">
@@ -2741,27 +2653,25 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="81">
@@ -2771,27 +2681,25 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="82">
@@ -2801,27 +2709,25 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="83">
@@ -2831,27 +2737,25 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="84">
@@ -2861,27 +2765,25 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="85">
@@ -2891,27 +2793,25 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="86">
@@ -2921,27 +2821,25 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.033185195720589</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.2898186807899407</v>
       </c>
     </row>
     <row r="87">
@@ -2951,10 +2849,10 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>650</v>
@@ -2962,16 +2860,14 @@
       <c r="E87" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F87" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>1.01120159841298</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1006126335513644</v>
       </c>
     </row>
     <row r="88">
@@ -2981,10 +2877,10 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>650</v>
@@ -2992,16 +2888,14 @@
       <c r="E88" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F88" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.9794039354679556</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1217958408599649</v>
       </c>
     </row>
     <row r="89">
@@ -3011,10 +2905,10 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>650</v>
@@ -3022,16 +2916,14 @@
       <c r="E89" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F89" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.9794039354679556</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1217958408599649</v>
       </c>
     </row>
     <row r="90">
@@ -3041,10 +2933,10 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>650</v>
@@ -3052,16 +2944,14 @@
       <c r="E90" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F90" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.9794039354679556</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1217958408599649</v>
       </c>
     </row>
     <row r="91">
@@ -3071,10 +2961,10 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>650</v>
@@ -3082,16 +2972,14 @@
       <c r="E91" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F91" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.9794039354679556</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1217958408599649</v>
       </c>
     </row>
     <row r="92">
@@ -3101,27 +2989,25 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F92" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="93">
@@ -3131,27 +3017,25 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F93" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="94">
@@ -3161,27 +3045,25 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F94" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="95">
@@ -3191,27 +3073,25 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="96">
@@ -3221,27 +3101,25 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F96" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="97">
@@ -3251,27 +3129,25 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F97" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.8874171051737463</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.1196191831401056</v>
       </c>
     </row>
     <row r="98">
@@ -3281,27 +3157,25 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F98" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.6311405282305219</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.08460221682028196</v>
       </c>
     </row>
     <row r="99">
@@ -3311,27 +3185,25 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F99" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.6311405282305219</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.08460221682028196</v>
       </c>
     </row>
     <row r="100">
@@ -3341,27 +3213,25 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F100" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.6311405282305219</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.08460221682028196</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="A1:XFD1048576"/>
@@ -386,22 +386,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.524936687838597</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -414,22 +414,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.524936687838597</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -470,22 +470,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -495,25 +495,25 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -526,22 +526,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +554,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -579,25 +579,25 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -607,25 +607,25 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -635,25 +635,25 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -666,22 +666,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -694,22 +694,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -750,22 +750,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -775,25 +775,25 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.244413427289157</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.2695881310553759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -803,25 +803,25 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.237740108149825</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.2681104790351593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -831,25 +831,25 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.237740108149825</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.2681104790351593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -859,25 +859,25 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.237607716414854</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.2767017544132918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -887,25 +887,25 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.237607716414854</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.2767017544132918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.237607716414854</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.2767017544132918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -946,22 +946,22 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>23</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.237607716414854</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.2767017544132918</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="22">
@@ -971,25 +971,25 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.235280995882571</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.2947830154254353</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="23">
@@ -999,25 +999,25 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.235280995882571</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.2947830154254353</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="24">
@@ -1027,25 +1027,25 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.235280995882571</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.2947830154254353</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="25">
@@ -1055,25 +1055,25 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.235280995882571</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.2947830154254353</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="26">
@@ -1086,22 +1086,22 @@
         <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.235280995882571</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.2947830154254353</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="27">
@@ -1111,25 +1111,25 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.233287206941826</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.3018727490557107</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="28">
@@ -1139,25 +1139,25 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.233287206941826</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.3018727490557107</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="29">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.233140182804032</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.2720840250308308</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="30">
@@ -1195,25 +1195,25 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.233140182804032</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.2720840250308308</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="31">
@@ -1223,25 +1223,25 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.233140182804032</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.2720840250308308</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="32">
@@ -1251,25 +1251,25 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F32" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.233140182804032</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.2720840250308308</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="33">
@@ -1282,22 +1282,22 @@
         <v>30</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.173681096724451</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.216107166400483</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.173681096724451</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.216107166400483</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="35">
@@ -1335,25 +1335,25 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.173681096724451</v>
+        <v>1.43706960183962</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.216107166400483</v>
+        <v>0.0007196476517575664</v>
       </c>
     </row>
     <row r="36">
@@ -1366,22 +1366,22 @@
         <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.173447810844346</v>
+        <v>1.430412387518392</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.2235783425926449</v>
+        <v>0.0005388266102244867</v>
       </c>
     </row>
     <row r="37">
@@ -1394,22 +1394,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.173447810844346</v>
+        <v>1.430412387518392</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.2235783425926449</v>
+        <v>0.0005388266102244867</v>
       </c>
     </row>
     <row r="38">
@@ -1422,22 +1422,22 @@
         <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.173447810844346</v>
+        <v>1.430412387518392</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.2235783425926449</v>
+        <v>0.0005388266102244867</v>
       </c>
     </row>
     <row r="39">
@@ -1450,24 +1450,22 @@
         <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.430412387518392</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005388266102244867</v>
       </c>
     </row>
     <row r="40">
@@ -1477,27 +1475,25 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.430412387518392</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005388266102244867</v>
       </c>
     </row>
     <row r="41">
@@ -1507,7 +1503,7 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>150</v>
@@ -1516,18 +1512,16 @@
         <v>500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.413873503270244</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0007544806821913853</v>
       </c>
     </row>
     <row r="42">
@@ -1537,27 +1531,25 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F42" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.413873503270244</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0007544806821913853</v>
       </c>
     </row>
     <row r="43">
@@ -1567,27 +1559,25 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.413873503270244</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0007544806821913853</v>
       </c>
     </row>
     <row r="44">
@@ -1597,27 +1587,25 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D44" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.403602539404753</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005804859136114435</v>
       </c>
     </row>
     <row r="45">
@@ -1627,27 +1615,25 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F45" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.403602539404753</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005804859136114435</v>
       </c>
     </row>
     <row r="46">
@@ -1657,27 +1643,25 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.403602539404753</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005804859136114435</v>
       </c>
     </row>
     <row r="47">
@@ -1687,27 +1671,25 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.403602539404753</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0005804859136114435</v>
       </c>
     </row>
     <row r="48">
@@ -1717,27 +1699,25 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.40265387806986</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0003967715795377988</v>
       </c>
     </row>
     <row r="49">
@@ -1747,27 +1727,25 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.399373356109481</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.001389327923427118</v>
       </c>
     </row>
     <row r="50">
@@ -1777,27 +1755,25 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.399373356109481</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.001389327923427118</v>
       </c>
     </row>
     <row r="51">
@@ -1807,27 +1783,25 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.383723198132138</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.001229699812057191</v>
       </c>
     </row>
     <row r="52">
@@ -1837,27 +1811,25 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.383723198132138</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.001229699812057191</v>
       </c>
     </row>
     <row r="53">
@@ -1870,24 +1842,22 @@
         <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.35464080399927</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002867015160000061</v>
       </c>
     </row>
     <row r="54">
@@ -1897,27 +1867,25 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.35464080399927</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002867015160000061</v>
       </c>
     </row>
     <row r="55">
@@ -1927,27 +1895,25 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.35464080399927</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002867015160000061</v>
       </c>
     </row>
     <row r="56">
@@ -1957,27 +1923,25 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.339776325371526</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0004650336342599349</v>
       </c>
     </row>
     <row r="57">
@@ -1987,27 +1951,25 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.318209189036246</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002803859443487394</v>
       </c>
     </row>
     <row r="58">
@@ -2017,27 +1979,25 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.318209189036246</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002803859443487394</v>
       </c>
     </row>
     <row r="59">
@@ -2047,27 +2007,25 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.318209189036246</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002803859443487394</v>
       </c>
     </row>
     <row r="60">
@@ -2077,27 +2035,25 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F60" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.318209189036246</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002803859443487394</v>
       </c>
     </row>
     <row r="61">
@@ -2107,27 +2063,25 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F61" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.309699582693009</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>6.781724274501591e-05</v>
       </c>
     </row>
     <row r="62">
@@ -2137,27 +2091,25 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.309699582693009</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>6.781724274501591e-05</v>
       </c>
     </row>
     <row r="63">
@@ -2167,16 +2119,16 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -2184,10 +2136,10 @@
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="64">
@@ -2197,27 +2149,25 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="65">
@@ -2227,16 +2177,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -2244,10 +2194,10 @@
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="66">
@@ -2257,16 +2207,16 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
@@ -2274,10 +2224,10 @@
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="67">
@@ -2287,27 +2237,25 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="68">
@@ -2320,22 +2268,24 @@
         <v>40</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1.103974614598401</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.2186111237809278</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="69">
@@ -2345,25 +2295,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>16</v>
+        <v>800</v>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.103974614598401</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.2186111237809278</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="70">
@@ -2376,22 +2328,24 @@
         <v>40</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1.103974614598401</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.2186111237809278</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="71">
@@ -2404,22 +2358,24 @@
         <v>40</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1.103974614598401</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.2186111237809278</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="72">
@@ -2429,25 +2385,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="73">
@@ -2457,25 +2415,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>24</v>
+        <v>800</v>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="74">
@@ -2485,25 +2445,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="75">
@@ -2513,25 +2473,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>24</v>
+        <v>1000</v>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="76">
@@ -2541,25 +2503,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="77">
@@ -2569,25 +2533,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="78">
@@ -2597,25 +2563,25 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="79">
@@ -2625,25 +2591,25 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.096502658529826</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.4027949390884675</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="80">
@@ -2653,25 +2619,27 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F80" s="0" t="n">
-        <v>25</v>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="81">
@@ -2684,22 +2652,24 @@
         <v>50</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>25</v>
+        <v>800</v>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="82">
@@ -2709,25 +2679,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="83">
@@ -2737,25 +2709,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="84">
@@ -2768,22 +2742,24 @@
         <v>50</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F84" s="0" t="n">
-        <v>25</v>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="85">
@@ -2793,25 +2769,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="86">
@@ -2821,25 +2799,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>25</v>
+        <v>1100</v>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1.033185195720589</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.2898186807899407</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="87">
@@ -2849,25 +2829,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>16</v>
+        <v>750</v>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1.01120159841298</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.1006126335513644</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="88">
@@ -2877,25 +2859,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>16</v>
+        <v>750</v>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.9794039354679556</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.1217958408599649</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="89">
@@ -2905,25 +2889,25 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E89" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F89" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.9794039354679556</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.1217958408599649</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="90">
@@ -2933,25 +2917,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>16</v>
+        <v>750</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.9794039354679556</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.1217958408599649</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="91">
@@ -2961,25 +2947,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>16</v>
+        <v>900</v>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.9794039354679556</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.1217958408599649</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="92">
@@ -2989,25 +2977,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="93">
@@ -3020,22 +3010,24 @@
         <v>40</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>16</v>
+        <v>1000</v>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="94">
@@ -3045,25 +3037,25 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="95">
@@ -3073,25 +3065,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>16</v>
+        <v>750</v>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="96">
@@ -3101,25 +3095,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>16</v>
+        <v>1000</v>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="97">
@@ -3129,25 +3125,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.8874171051737463</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.1196191831401056</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="98">
@@ -3157,25 +3155,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>14</v>
+        <v>1500</v>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.6311405282305219</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.08460221682028196</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="99">
@@ -3185,25 +3185,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>14</v>
+        <v>1100</v>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.6311405282305219</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.08460221682028196</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="100">
@@ -3213,25 +3215,2865 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>rule101</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>rule102</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>rule103</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>rule104</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>rule105</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>rule106</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>rule107</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>rule108</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>rule109</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rule110</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rule111</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>rule112</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>rule113</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>rule114</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>rule115</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>rule116</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>rule117</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>rule118</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>rule119</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>rule120</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>rule121</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>rule122</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>1.27186744709548</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.0008759831837381832</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>rule123</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>1.251133482212531</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.002533207343523943</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>rule124</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>1.251133482212531</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.002533207343523943</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>rule125</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>1.21098291612627</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.008186909814998148</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>rule126</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>1.21098291612627</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.008186909814998148</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>rule127</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>1.21098291612627</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.008186909814998148</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>rule128</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>1.208084200940474</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.0003476902718802581</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>rule129</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>1.208084200940474</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.0003476902718802581</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>rule130</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>1.201268235126112</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.0001398119976500185</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>rule131</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>1.201268235126112</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.0001398119976500185</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>rule132</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>1.201268235126112</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.0001398119976500185</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>rule133</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>1.201268235126112</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.0001398119976500185</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>rule134</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>1.180760954193866</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>1.015851363007192e-05</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>rule135</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>1.180760954193866</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>1.015851363007192e-05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>rule136</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>1.180760954193866</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>1.015851363007192e-05</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>rule137</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C137" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="D137" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E137" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F100" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>0.6311405282305219</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0.08460221682028196</v>
+      <c r="F137" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>1.14159691152611</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>5.731123771708494e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>rule138</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>1.14159691152611</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>5.731123771708494e-05</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>rule139</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>1.14159691152611</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>5.731123771708494e-05</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>rule140</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>1.14159691152611</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>5.731123771708494e-05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>rule141</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>1.14159691152611</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>5.731123771708494e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>rule142</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>1.097632715930907</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>9.36181198652425e-05</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>rule143</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>1.097632715930907</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>9.36181198652425e-05</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>rule144</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1.097632715930907</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>9.36181198652425e-05</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>rule145</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>1.097632715930907</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>9.36181198652425e-05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>rule146</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.9896822551811508</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>7.031164732297659e-06</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>rule147</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.9896822551811508</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>7.031164732297659e-06</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>rule148</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.977190693689755</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>6.051233308761126e-05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>rule149</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.977190693689755</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>6.051233308761126e-05</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>rule150</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>rule151</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>rule152</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>rule153</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>rule154</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>rule155</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>rule156</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>rule157</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>rule158</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>rule159</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>rule160</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>rule161</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>rule162</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>0.9011209492174107</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>0.0002701305434336269</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>rule163</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>0.8408197446037537</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>3.745733533657872e-05</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>rule164</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>rule165</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>rule166</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>rule167</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>rule168</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>rule169</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>rule170</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>rule171</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>rule172</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>rule173</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>rule174</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>rule175</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>rule176</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>rule177</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>rule178</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>rule179</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>rule180</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>rule181</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>rule182</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>0.7808788772264472</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0.006479080412847261</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>rule183</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>0.6796599194696855</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0.02416884898906315</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>rule184</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0.6796599194696855</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0.02416884898906315</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>rule185</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>0.6796599194696855</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0.02416884898906315</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>rule186</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>0.5962554480505233</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0.01010387394376404</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>rule187</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0.3960271570868643</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0.001614956279010915</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>rule188</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0.3960271570868643</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0.001614956279010915</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>rule189</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>rule190</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>rule191</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>rule192</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>rule193</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>rule194</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>rule195</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>rule196</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>rule197</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>0.345004494470345</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>5.90913985623658e-06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>rule198</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>-0.04880693530312437</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>8.117228976827196e-07</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>rule199</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>-0.04880693530312437</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>8.117228976827196e-07</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>rule200</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>-0.04880693530312437</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>8.117228976827196e-07</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="A1:XFD1048576"/>
@@ -383,25 +383,31 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>60.37725912936817</v>
+        <v>200</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>-0.1494131311480189</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>0.1826871178578097</v>
       </c>
     </row>
     <row r="2">
@@ -411,25 +417,31 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>60.37725912936817</v>
+        <v>200</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-0.1494131311480189</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.1826871178578097</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +451,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="4">
@@ -467,25 +487,33 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="5">
@@ -495,25 +523,33 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="6">
@@ -523,25 +559,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="7">
@@ -551,25 +595,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="8">
@@ -579,25 +631,33 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="9">
@@ -607,25 +667,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="10">
@@ -635,25 +703,33 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="11">
@@ -663,25 +739,33 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="12">
@@ -691,25 +775,33 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +811,33 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="14">
@@ -747,25 +847,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="15">
@@ -775,25 +883,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="16">
@@ -803,25 +919,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="17">
@@ -831,25 +955,33 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="18">
@@ -859,25 +991,33 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="19">
@@ -887,25 +1027,33 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="20">
@@ -915,25 +1063,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="21">
@@ -943,25 +1099,33 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="22">
@@ -971,25 +1135,33 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="23">
@@ -999,25 +1171,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="24">
@@ -1027,25 +1207,33 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="25">
@@ -1055,25 +1243,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="26">
@@ -1083,25 +1279,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="27">
@@ -1111,25 +1315,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>60.37725912936817</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="28">
@@ -1139,25 +1351,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>60.30327974373617</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="29">
@@ -1167,25 +1387,33 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>60.30327974373617</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="30">
@@ -1195,25 +1423,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>60.30327974373617</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>-0.1606975838475515</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.1985351166061175</v>
       </c>
     </row>
     <row r="31">
@@ -1223,25 +1459,31 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>120</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>139.6510237438887</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>5048.572336180138</v>
       </c>
     </row>
     <row r="32">
@@ -1251,25 +1493,31 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>120</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>139.6510237438887</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>5048.572336180138</v>
       </c>
     </row>
     <row r="33">
@@ -1279,25 +1527,31 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>200</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>139.4592572840903</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>5022.811745316908</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1561,31 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>200</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>139.4592572840903</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>5022.811745316908</v>
       </c>
     </row>
     <row r="35">
@@ -1335,25 +1595,31 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>200</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>139.4592572840903</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>5022.811745316908</v>
       </c>
     </row>
     <row r="36">
@@ -1366,22 +1632,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>150</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>138.4893781269351</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>4886.278251563832</v>
       </c>
     </row>
     <row r="37">
@@ -1397,19 +1669,25 @@
         <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>150</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>138.4893781269351</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>4886.278251563832</v>
       </c>
     </row>
     <row r="38">
@@ -1419,25 +1697,31 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>59.83445308510969</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>137.7629169443768</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>5117.634996919261</v>
       </c>
     </row>
     <row r="39">
@@ -1447,25 +1731,31 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F39" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
+      <c r="I39" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="40">
@@ -1475,25 +1765,31 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H40" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
+      <c r="I40" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="41">
@@ -1503,25 +1799,31 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
+      <c r="I41" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="42">
@@ -1531,25 +1833,31 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F42" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H42" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
+      <c r="I42" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="43">
@@ -1559,25 +1867,31 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F43" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
+      <c r="I43" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="44">
@@ -1587,25 +1901,31 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H44" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
+      <c r="I44" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="45">
@@ -1615,25 +1935,31 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F45" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>59.83445308510969</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
+      <c r="I45" s="0" t="n">
+        <v>137.3036263477882</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>5137.329422989907</v>
       </c>
     </row>
     <row r="46">
@@ -1643,25 +1969,31 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F46" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>59.44091108634439</v>
+        <v>160</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>136.5915522603021</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>4646.704140003351</v>
       </c>
     </row>
     <row r="47">
@@ -1671,25 +2003,31 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F47" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>59.44091108634439</v>
+        <v>160</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>136.5915522603021</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>4646.704140003351</v>
       </c>
     </row>
     <row r="48">
@@ -1699,25 +2037,31 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>59.44091108634439</v>
+        <v>130</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="49">
@@ -1727,25 +2071,31 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G49" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
+      <c r="I49" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="50">
@@ -1755,25 +2105,31 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F50" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0</v>
+      <c r="I50" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="51">
@@ -1783,25 +2139,31 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F51" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
+      <c r="I51" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="52">
@@ -1811,25 +2173,31 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F52" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
+      <c r="I52" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="53">
@@ -1839,25 +2207,31 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F53" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
+      <c r="I53" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="54">
@@ -1867,25 +2241,31 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>59.43686957421025</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>0</v>
+      <c r="I54" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="55">
@@ -1895,25 +2275,31 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>160</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="56">
@@ -1923,25 +2309,31 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>150</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="57">
@@ -1951,25 +2343,31 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>59.21339135193475</v>
-      </c>
       <c r="H57" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="58">
@@ -1979,25 +2377,31 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="59">
@@ -2007,25 +2411,31 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="60">
@@ -2035,25 +2445,31 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="61">
@@ -2063,25 +2479,31 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="G61" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>150</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="62">
@@ -2091,25 +2513,31 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D62" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>160</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="63">
@@ -2119,25 +2547,31 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="64">
@@ -2147,25 +2581,31 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>160</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="65">
@@ -2175,25 +2615,31 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="66">
@@ -2203,25 +2649,31 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="67">
@@ -2231,25 +2683,31 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="68">
@@ -2259,25 +2717,31 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="69">
@@ -2287,25 +2751,31 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="70">
@@ -2315,25 +2785,31 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="G70" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>150</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="71">
@@ -2343,25 +2819,31 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="G71" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>150</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="72">
@@ -2371,25 +2853,31 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>200</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="73">
@@ -2399,25 +2887,31 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="G73" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>200</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="74">
@@ -2427,25 +2921,31 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="75">
@@ -2455,25 +2955,31 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>120</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="76">
@@ -2483,25 +2989,31 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>200</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="77">
@@ -2511,25 +3023,31 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="78">
@@ -2539,25 +3057,31 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>59.21339135193475</v>
+        <v>130</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>135.0835860549577</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>5625.391386599754</v>
       </c>
     </row>
     <row r="79">
@@ -2567,25 +3091,31 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>58.23806506153357</v>
+        <v>130</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>133.4871339557165</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>4104.857937131319</v>
       </c>
     </row>
     <row r="80">
@@ -2595,25 +3125,31 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>58.23806506153357</v>
+        <v>130</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>133.4871339557165</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>4104.857937131319</v>
       </c>
     </row>
     <row r="81">
@@ -2623,10 +3159,10 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>650</v>
@@ -2635,13 +3171,19 @@
         <v>750</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>57.33791027752529</v>
+        <v>130</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>133.4871339557165</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>4104.857937131319</v>
       </c>
     </row>
     <row r="82">
@@ -2651,25 +3193,33 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="83">
@@ -2679,25 +3229,33 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="84">
@@ -2707,25 +3265,33 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="85">
@@ -2735,25 +3301,33 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="86">
@@ -2763,25 +3337,33 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="87">
@@ -2791,25 +3373,33 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="88">
@@ -2819,25 +3409,33 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="89">
@@ -2847,25 +3445,31 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G89" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
       <c r="H89" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="90">
@@ -2875,25 +3479,33 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="91">
@@ -2903,25 +3515,33 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>57.33791027752529</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="92">
@@ -2931,25 +3551,33 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>57.26563639345263</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="93">
@@ -2959,25 +3587,33 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>57.26563639345263</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="94">
@@ -2987,25 +3623,33 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>57.05347314487562</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="95">
@@ -3015,25 +3659,33 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>56.7142634312068</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="96">
@@ -3043,25 +3695,33 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>56.7142634312068</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="97">
@@ -3071,25 +3731,31 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>56.69465517864419</v>
+        <v>200</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="98">
@@ -3099,25 +3765,33 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>56.69465517864419</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="99">
@@ -3127,25 +3801,33 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>56.69465517864419</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="100">
@@ -3155,25 +3837,33 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>56.67361072694514</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="101">
@@ -3183,25 +3873,33 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>56.67361072694514</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="102">
@@ -3211,25 +3909,33 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>56.61698563655984</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="103">
@@ -3239,25 +3945,33 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C103" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F103" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="G103" s="0" t="n">
-        <v>56.48347015736638</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="104">
@@ -3267,25 +3981,33 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>56.16664643484355</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="105">
@@ -3295,25 +4017,31 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>56.16664643484355</v>
+        <v>200</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="106">
@@ -3323,25 +4051,33 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>56.16664643484355</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="107">
@@ -3351,25 +4087,33 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>56.16664643484355</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="108">
@@ -3379,27 +4123,31 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F108" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="109">
@@ -3412,24 +4160,30 @@
         <v>80</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F109" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0</v>
+      <c r="I109" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="110">
@@ -3442,24 +4196,30 @@
         <v>70</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F110" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G110" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>0</v>
+      <c r="I110" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="111">
@@ -3469,27 +4229,33 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F111" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G111" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>0</v>
+      <c r="I111" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="112">
@@ -3499,27 +4265,33 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F112" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G112" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>0</v>
+      <c r="I112" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="113">
@@ -3529,27 +4301,33 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F113" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G113" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>0</v>
+      <c r="I113" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="114">
@@ -3559,27 +4337,31 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F114" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="115">
@@ -3592,24 +4374,30 @@
         <v>70</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F115" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G115" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>0</v>
+      <c r="I115" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="116">
@@ -3619,27 +4407,33 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F116" s="0" t="inlineStr">
+      <c r="F116" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G116" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>0</v>
+      <c r="I116" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="117">
@@ -3649,27 +4443,33 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F117" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G117" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>0</v>
+      <c r="I117" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="118">
@@ -3679,27 +4479,33 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F118" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G118" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>0</v>
+      <c r="I118" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="119">
@@ -3709,27 +4515,33 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F119" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>0</v>
+      <c r="I119" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="120">
@@ -3739,27 +4551,33 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F120" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G120" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>0</v>
+      <c r="I120" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="121">
@@ -3772,24 +4590,30 @@
         <v>80</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F121" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>0</v>
+      <c r="I121" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="122">
@@ -3802,24 +4626,30 @@
         <v>0</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F122" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G122" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>0</v>
+      <c r="I122" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="123">
@@ -3829,27 +4659,33 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F123" s="0" t="inlineStr">
+      <c r="F123" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G123" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>0</v>
+      <c r="I123" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="124">
@@ -3859,27 +4695,33 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D124" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E124" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E124" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F124" s="0" t="inlineStr">
+      <c r="F124" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G124" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>0</v>
+      <c r="I124" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="125">
@@ -3889,27 +4731,33 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F125" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G125" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>0</v>
+      <c r="I125" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="126">
@@ -3922,24 +4770,28 @@
         <v>40</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F126" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="127">
@@ -3949,27 +4801,33 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F127" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G127" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H127" s="0" t="n">
-        <v>0</v>
+      <c r="I127" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="128">
@@ -3979,25 +4837,33 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="129">
@@ -4007,27 +4873,33 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F129" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G129" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>0</v>
+      <c r="I129" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="130">
@@ -4037,27 +4909,33 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F130" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G130" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H130" s="0" t="n">
-        <v>0</v>
+      <c r="I130" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="131">
@@ -4067,27 +4945,33 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D131" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E131" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E131" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F131" s="0" t="inlineStr">
+      <c r="F131" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G131" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H131" s="0" t="n">
-        <v>0</v>
+      <c r="I131" s="0" t="n">
+        <v>133.0718792726768</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>4158.240415408549</v>
       </c>
     </row>
     <row r="132">
@@ -4097,27 +4981,31 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F132" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>129.8078006265671</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>6106.175652507775</v>
       </c>
     </row>
     <row r="133">
@@ -4127,27 +5015,31 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F133" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F133" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="134">
@@ -4157,27 +5049,31 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C134" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F134" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E134" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F134" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G134" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="135">
@@ -4187,27 +5083,31 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F135" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C135" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E135" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F135" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G135" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="136">
@@ -4217,27 +5117,31 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F136" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="137">
@@ -4247,27 +5151,31 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F137" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F137" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="138">
@@ -4277,27 +5185,31 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F138" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>129.5998909973644</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>4618.073417958551</v>
       </c>
     </row>
     <row r="139">
@@ -4307,27 +5219,31 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C139" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F139" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F139" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G139" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>125.9737358705674</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>5124.063375082541</v>
       </c>
     </row>
     <row r="140">
@@ -4337,27 +5253,31 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C140" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D140" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F140" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>130</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>120.3522890909728</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>2679.597600234728</v>
       </c>
     </row>
     <row r="141">
@@ -4367,27 +5287,31 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F141" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>130</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>120.3522890909728</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>2679.597600234728</v>
       </c>
     </row>
     <row r="142">
@@ -4397,27 +5321,31 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C142" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C142" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D142" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F142" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F142" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>118.452112586394</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>7053.952889404657</v>
       </c>
     </row>
     <row r="143">
@@ -4427,27 +5355,31 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G143" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F143" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G143" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H143" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>118.452112586394</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>7053.952889404657</v>
       </c>
     </row>
     <row r="144">
@@ -4457,27 +5389,31 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F144" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>118.452112586394</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>7053.952889404657</v>
       </c>
     </row>
     <row r="145">
@@ -4487,27 +5423,31 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F145" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="146">
@@ -4517,27 +5457,31 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F146" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="147">
@@ -4547,27 +5491,31 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F147" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="148">
@@ -4577,27 +5525,31 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F148" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F148" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="149">
@@ -4607,27 +5559,31 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F149" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="150">
@@ -4637,27 +5593,31 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F150" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>112.4637895370097</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>7240.735203444882</v>
       </c>
     </row>
     <row r="151">
@@ -4667,27 +5627,31 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F151" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="152">
@@ -4697,27 +5661,31 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F152" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="153">
@@ -4727,27 +5695,31 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F153" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="154">
@@ -4757,27 +5729,31 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F154" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F154" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="155">
@@ -4787,27 +5763,31 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F155" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="156">
@@ -4817,27 +5797,31 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F156" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="157">
@@ -4847,27 +5831,31 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F157" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="158">
@@ -4877,27 +5865,31 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F158" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F158" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="159">
@@ -4907,27 +5899,31 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F159" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F159" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="160">
@@ -4937,27 +5933,31 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F160" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="161">
@@ -4967,27 +5967,31 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F161" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>106.2744238163309</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>8332.380776454789</v>
       </c>
     </row>
     <row r="162">
@@ -4997,27 +6001,31 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F162" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C162" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F162" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G162" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>99.99656755118734</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>8729.371968540901</v>
       </c>
     </row>
     <row r="163">
@@ -5030,22 +6038,28 @@
         <v>0</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>99.99656755118734</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>8729.371968540901</v>
       </c>
     </row>
     <row r="164">
@@ -5055,27 +6069,31 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C164" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C164" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D164" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F164" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>99.99656755118734</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>8729.371968540901</v>
       </c>
     </row>
     <row r="165">
@@ -5085,27 +6103,31 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F165" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="166">
@@ -5115,27 +6137,31 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C166" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C166" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D166" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F166" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>140</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="167">
@@ -5145,27 +6171,31 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D167" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E167" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E167" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F167" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F167" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="168">
@@ -5175,27 +6205,31 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F168" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="169">
@@ -5205,27 +6239,31 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C169" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C169" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D169" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F169" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="170">
@@ -5238,24 +6276,28 @@
         <v>10</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F170" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="171">
@@ -5265,27 +6307,31 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F171" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>140</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="172">
@@ -5295,27 +6341,31 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C172" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C172" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D172" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F172" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="173">
@@ -5325,27 +6375,31 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F173" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="174">
@@ -5355,27 +6409,31 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F174" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="175">
@@ -5385,27 +6443,31 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C175" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G175" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E175" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F175" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G175" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H175" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="176">
@@ -5415,27 +6477,31 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F176" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="177">
@@ -5445,27 +6511,31 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C177" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D177" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E177" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F177" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G177" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H177" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="178">
@@ -5475,27 +6545,31 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F178" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>140</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>93.43891967947255</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>2319.380893647472</v>
       </c>
     </row>
     <row r="179">
@@ -5505,27 +6579,31 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F179" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>71.63877670953175</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>9.31053775371117</v>
       </c>
     </row>
     <row r="180">
@@ -5535,27 +6613,31 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F180" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F180" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>60.41859855108365</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>1119.793722819443</v>
       </c>
     </row>
     <row r="181">
@@ -5565,27 +6647,31 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F181" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F181" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>60.41859855108365</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <v>1119.793722819443</v>
       </c>
     </row>
     <row r="182">
@@ -5595,27 +6681,31 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F182" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>60.41859855108365</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <v>1119.793722819443</v>
       </c>
     </row>
     <row r="183">
@@ -5625,27 +6715,31 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F183" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>40.47019439767857</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <v>1186.533851568819</v>
       </c>
     </row>
     <row r="184">
@@ -5655,27 +6749,31 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F184" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>40.47019439767857</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <v>1186.533851568819</v>
       </c>
     </row>
     <row r="185">
@@ -5685,27 +6783,31 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F185" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F185" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>40.47019439767857</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>1186.533851568819</v>
       </c>
     </row>
     <row r="186">
@@ -5715,27 +6817,31 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F186" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F186" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>40.47019439767857</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <v>1186.533851568819</v>
       </c>
     </row>
     <row r="187">
@@ -5745,27 +6851,31 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F187" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>23.36272764966725</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <v>50.8767420509504</v>
       </c>
     </row>
     <row r="188">
@@ -5778,22 +6888,28 @@
         <v>0</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="189">
@@ -5803,27 +6919,31 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F189" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="190">
@@ -5833,27 +6953,31 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F190" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="191">
@@ -5863,27 +6987,31 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F191" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="192">
@@ -5893,27 +7021,31 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C192" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D192" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F192" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="193">
@@ -5923,27 +7055,31 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D193" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E193" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E193" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F193" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F193" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="194">
@@ -5953,27 +7089,31 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F194" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="195">
@@ -5983,27 +7123,31 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C195" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D195" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F195" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="196">
@@ -6013,27 +7157,31 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F196" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C196" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E196" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F196" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G196" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="197">
@@ -6043,27 +7191,31 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F197" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="198">
@@ -6073,27 +7225,31 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F198" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="199">
@@ -6103,27 +7259,31 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F199" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="200">
@@ -6133,27 +7293,31 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C200" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D200" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F200" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>-3.953782955917605</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <v>610.8222827952036</v>
       </c>
     </row>
     <row r="201">

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,31 +383,31 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>-0.1494131311480189</v>
+        <v>-0.06759688430998892</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0.1826871178578097</v>
+        <v>0.3439115564766985</v>
       </c>
     </row>
     <row r="2">
@@ -417,31 +417,31 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>-0.1494131311480189</v>
+        <v>-0.06759688430998892</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.1826871178578097</v>
+        <v>0.3439115564766985</v>
       </c>
     </row>
     <row r="3">
@@ -451,33 +451,31 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="H3" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06835462492004227</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3417404677952846</v>
       </c>
     </row>
     <row r="4">
@@ -487,33 +485,31 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="H4" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06835462492004227</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3417404677952846</v>
       </c>
     </row>
     <row r="5">
@@ -523,33 +519,31 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="H5" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06835462492004227</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3417404677952846</v>
       </c>
     </row>
     <row r="6">
@@ -559,33 +553,31 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06841150940344068</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3423167367075844</v>
       </c>
     </row>
     <row r="7">
@@ -595,33 +587,31 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06841150940344068</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3423167367075844</v>
       </c>
     </row>
     <row r="8">
@@ -631,33 +621,31 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06841150940344068</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3423167367075844</v>
       </c>
     </row>
     <row r="9">
@@ -667,33 +655,31 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06841150940344068</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3423167367075844</v>
       </c>
     </row>
     <row r="10">
@@ -703,33 +689,31 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.06841150940344068</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3423167367075844</v>
       </c>
     </row>
     <row r="11">
@@ -739,33 +723,31 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="12">
@@ -775,33 +757,31 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="13">
@@ -811,33 +791,31 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="14">
@@ -847,33 +825,31 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="15">
@@ -883,33 +859,31 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="16">
@@ -919,33 +893,31 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="17">
@@ -955,33 +927,31 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="18">
@@ -991,33 +961,31 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="19">
@@ -1027,33 +995,31 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="20">
@@ -1063,33 +1029,31 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="21">
@@ -1099,33 +1063,31 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="22">
@@ -1135,33 +1097,31 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="23">
@@ -1171,33 +1131,31 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="24">
@@ -1207,33 +1165,31 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="25">
@@ -1243,33 +1199,31 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="26">
@@ -1279,33 +1233,31 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H26" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="27">
@@ -1315,33 +1267,31 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="28">
@@ -1351,33 +1301,31 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H28" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="29">
@@ -1387,33 +1335,31 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H29" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="30">
@@ -1423,33 +1369,31 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>-0.1606975838475515</v>
+        <v>-0.0754703785603012</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.1985351166061175</v>
+        <v>0.3354389628777493</v>
       </c>
     </row>
     <row r="31">
@@ -1459,31 +1403,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>139.6510237438887</v>
+        <v>-0.08590416333336694</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>5048.572336180138</v>
+        <v>0.3132123928966178</v>
       </c>
     </row>
     <row r="32">
@@ -1493,31 +1439,33 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>139.6510237438887</v>
+        <v>-0.08590416333336694</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>5048.572336180138</v>
+        <v>0.3132123928966178</v>
       </c>
     </row>
     <row r="33">
@@ -1527,31 +1475,31 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>139.4592572840903</v>
+        <v>-0.3438429737381341</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>5022.811745316908</v>
+        <v>0.5894362172067148</v>
       </c>
     </row>
     <row r="34">
@@ -1561,31 +1509,31 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>139.4592572840903</v>
+        <v>-0.3438429737381341</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>5022.811745316908</v>
+        <v>0.5894362172067148</v>
       </c>
     </row>
     <row r="35">
@@ -1595,31 +1543,31 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>139.4592572840903</v>
+        <v>-0.3438429737381341</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>5022.811745316908</v>
+        <v>0.5894362172067148</v>
       </c>
     </row>
     <row r="36">
@@ -1632,28 +1580,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>138.4893781269351</v>
+        <v>-0.4809136487693316</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>4886.278251563832</v>
+        <v>0.6743031544186711</v>
       </c>
     </row>
     <row r="37">
@@ -1666,28 +1614,28 @@
         <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>138.4893781269351</v>
+        <v>-0.4809136487693316</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>4886.278251563832</v>
+        <v>0.6743031544186711</v>
       </c>
     </row>
     <row r="38">
@@ -1697,31 +1645,31 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>137.7629169443768</v>
+        <v>-0.4818955588178363</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>5117.634996919261</v>
+        <v>0.1537183251508143</v>
       </c>
     </row>
     <row r="39">
@@ -1731,31 +1679,31 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>137.3036263477882</v>
+        <v>-0.4818955588178363</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>5137.329422989907</v>
+        <v>0.1537183251508143</v>
       </c>
     </row>
     <row r="40">
@@ -1765,31 +1713,31 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>137.3036263477882</v>
+        <v>-0.5011357740558485</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>5137.329422989907</v>
+        <v>0.1642254077169645</v>
       </c>
     </row>
     <row r="41">

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,30 +383,30 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>change speed to 22</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2439281469603522</v>
       </c>
       <c r="J1" s="0" t="n">
         <v>0</v>
@@ -419,30 +419,30 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -455,30 +455,30 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -491,30 +491,30 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -527,30 +527,30 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -563,30 +563,30 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -599,30 +599,30 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -635,30 +635,30 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -671,30 +671,30 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -707,30 +707,30 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -743,30 +743,30 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>200</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -779,30 +779,30 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -815,30 +815,30 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G13" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -851,30 +851,30 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -887,30 +887,30 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>-0.218609954085568</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -923,30 +923,30 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>-0.2443330357404713</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -962,27 +962,27 @@
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>-0.2443330357404713</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -995,30 +995,30 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>-0.2443330357404713</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
@@ -1247,26 +1247,26 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -1319,22 +1319,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
@@ -1355,22 +1355,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
@@ -1391,22 +1391,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
@@ -1499,22 +1499,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
@@ -1535,22 +1535,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
@@ -1607,22 +1607,22 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
@@ -1643,22 +1643,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1715,22 +1715,22 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C38" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
@@ -1751,22 +1751,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
@@ -1787,22 +1787,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
@@ -1895,30 +1895,30 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.2503335589751986</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -1931,30 +1931,30 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.2503335589751986</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -1967,30 +1967,30 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.2503335589751986</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -2003,30 +2003,30 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I46" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.2503335589751986</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -2039,30 +2039,30 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I47" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.2505760947757057</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -2075,30 +2075,30 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>200</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>change speed to 17</t>
+          <t>change speed to 11</t>
         </is>
       </c>
       <c r="I48" s="0" t="n">
-        <v>-0.3455366077776529</v>
+        <v>-0.2553157379523174</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -2111,30 +2111,30 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>change speed to 17</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I49" s="0" t="n">
-        <v>-0.3455366077776529</v>
+        <v>-0.2561594377880888</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -2150,27 +2150,27 @@
         <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>change speed to 16</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I50" s="0" t="n">
-        <v>-0.4170699522795235</v>
+        <v>-0.2769998953883018</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -2183,33 +2183,33 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D51" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I51" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.2769998953883018</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2219,33 +2219,33 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I52" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.3074278392939581</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2255,33 +2255,33 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I53" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.3074278392939581</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2291,33 +2291,33 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 11</t>
         </is>
       </c>
       <c r="I54" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.5322115289520315</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2327,33 +2327,33 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I55" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.5679756480393867</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2363,31 +2363,33 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>24</v>
+        <v>150</v>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 14</t>
+        </is>
       </c>
       <c r="I56" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.5679756480393867</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2397,33 +2399,33 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.5679756480393867</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2433,33 +2435,33 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.5679756480393867</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2469,33 +2471,33 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 13</t>
         </is>
       </c>
       <c r="I59" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6133644939186558</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2505,33 +2507,33 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G60" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 13</t>
         </is>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6133644939186558</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2541,33 +2543,33 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 13</t>
         </is>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6133644939186558</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2577,33 +2579,33 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 13</t>
         </is>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6133644939186558</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2613,33 +2615,33 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="G63" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.2891345449967613</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2649,33 +2651,33 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I64" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.4431614823334661</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2685,31 +2687,33 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 14</t>
+        </is>
       </c>
       <c r="I65" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6023330234894426</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2719,33 +2723,33 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I66" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.6023330234894426</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">

--- a/output/ship_rule_speed.xlsx
+++ b/output/ship_rule_speed.xlsx
@@ -383,33 +383,33 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>change speed to 22</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>-0.2439281469603522</v>
+        <v>0.01074828878494313</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0</v>
+        <v>0.3062254123821472</v>
       </c>
     </row>
     <row r="2">
@@ -422,30 +422,30 @@
         <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.01074828878494313</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>0.3062254123821472</v>
       </c>
     </row>
     <row r="3">
@@ -455,33 +455,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.01074828878494313</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>0.3062254123821472</v>
       </c>
     </row>
     <row r="4">
@@ -491,33 +491,33 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.01074828878494313</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.3062254123821472</v>
       </c>
     </row>
     <row r="5">
@@ -527,33 +527,33 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.001674120081044028</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>0.3490032290421489</v>
       </c>
     </row>
     <row r="6">
@@ -563,33 +563,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.001674120081044028</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>0.3490032290421489</v>
       </c>
     </row>
     <row r="7">
@@ -599,33 +599,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.001909955923147477</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>0.3419515184795215</v>
       </c>
     </row>
     <row r="8">
@@ -638,30 +638,30 @@
         <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.002961045117429889</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>0.306037041277764</v>
       </c>
     </row>
     <row r="9">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.002961045117429889</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>0.306037041277764</v>
       </c>
     </row>
     <row r="10">
@@ -707,33 +707,33 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.003281911568944473</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>0.3393133751430374</v>
       </c>
     </row>
     <row r="11">
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.003281911568944473</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.3393133751430374</v>
       </c>
     </row>
     <row r="12">
@@ -779,33 +779,33 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.003281911568944473</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>0.3393133751430374</v>
       </c>
     </row>
     <row r="13">
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.003281911568944473</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>0.3393133751430374</v>
       </c>
     </row>
     <row r="14">
@@ -851,33 +851,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.008668535413022468</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>0.3263213471042857</v>
       </c>
     </row>
     <row r="15">
@@ -887,33 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.00873301874711073</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>0.3263187732911418</v>
       </c>
     </row>
     <row r="16">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="18">
@@ -995,22 +995,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="19">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="20">
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F20" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="21">
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G21" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="22">
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="23">
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="24">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="25">
@@ -1247,33 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="26">
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="27">
@@ -1319,33 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="28">
@@ -1355,22 +1355,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G28" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="29">
@@ -1391,22 +1391,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="30">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="31">
@@ -1463,33 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="32">
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>160</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="33">
@@ -1541,16 +1541,16 @@
         <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="34">
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="35">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I35" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="36">
@@ -1643,22 +1643,22 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="I36" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="37">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="I37" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="38">
@@ -1715,22 +1715,22 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G38" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="I38" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="39">
@@ -1751,22 +1751,22 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="I39" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="40">
@@ -1787,22 +1787,22 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="I40" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="41">
@@ -1823,33 +1823,33 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I41" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="42">
@@ -1859,19 +1859,19 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>160</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="I42" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="43">
@@ -1895,33 +1895,33 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-0.2503335589751986</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="44">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-0.2503335589751986</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="45">
@@ -1967,33 +1967,33 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-0.2503335589751986</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="46">
@@ -2003,33 +2003,33 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F46" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G46" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I46" s="0" t="n">
-        <v>-0.2503335589751986</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="47">
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G47" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I47" s="0" t="n">
-        <v>-0.2505760947757057</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="48">
@@ -2075,33 +2075,33 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>200</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>change speed to 11</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I48" s="0" t="n">
-        <v>-0.2553157379523174</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="49">
@@ -2111,33 +2111,33 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I49" s="0" t="n">
-        <v>-0.2561594377880888</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="50">
@@ -2147,33 +2147,33 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I50" s="0" t="n">
-        <v>-0.2769998953883018</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="51">
@@ -2186,30 +2186,30 @@
         <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I51" s="0" t="n">
-        <v>-0.2769998953883018</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="52">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>140</v>
@@ -2228,24 +2228,24 @@
         <v>300</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I52" s="0" t="n">
-        <v>-0.3074278392939581</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="53">
@@ -2255,33 +2255,33 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I53" s="0" t="n">
-        <v>-0.3074278392939581</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="54">
@@ -2291,33 +2291,33 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>change speed to 11</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I54" s="0" t="n">
-        <v>-0.5322115289520315</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="55">
@@ -2327,33 +2327,33 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I55" s="0" t="n">
-        <v>-0.5679756480393867</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="56">
@@ -2363,33 +2363,33 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I56" s="0" t="n">
-        <v>-0.5679756480393867</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="57">
@@ -2399,33 +2399,33 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-0.5679756480393867</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="58">
@@ -2435,33 +2435,33 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-0.5679756480393867</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="59">
@@ -2474,30 +2474,30 @@
         <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>change speed to 13</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I59" s="0" t="n">
-        <v>-0.6133644939186558</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="60">
@@ -2510,30 +2510,30 @@
         <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>change speed to 13</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-0.6133644939186558</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="61">
@@ -2543,33 +2543,33 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>130</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>change speed to 13</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-0.6133644939186558</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="62">
@@ -2579,33 +2579,33 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>change speed to 13</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-0.6133644939186558</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="63">
@@ -2618,30 +2618,30 @@
         <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-0.2891345449967613</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="64">
@@ -2651,33 +2651,33 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="D64" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
-          <t>change speed to 15</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I64" s="0" t="n">
-        <v>-0.4431614823334661</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="65">
@@ -2687,33 +2687,33 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F65" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G65" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I65" s="0" t="n">
-        <v>-0.6023330234894426</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="66">
@@ -2723,33 +2723,33 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I66" s="0" t="n">
-        <v>-0.6023330234894426</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="67">
@@ -2759,22 +2759,22 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="I67" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="68">
@@ -2795,33 +2795,33 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
       <c r="I68" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="69">
@@ -2831,33 +2831,33 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="F69" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G69" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="G69" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I69" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="70">
@@ -2867,31 +2867,33 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 18</t>
+        </is>
       </c>
       <c r="I70" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.01530541510055265</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3236155076995919</v>
       </c>
     </row>
     <row r="71">
@@ -2901,33 +2903,33 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I71" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.01530541510055265</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3236155076995919</v>
       </c>
     </row>
     <row r="72">
@@ -2937,33 +2939,33 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I72" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.01530541510055265</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3236155076995919</v>
       </c>
     </row>
     <row r="73">
@@ -2973,33 +2975,33 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I73" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.01530541510055265</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3236155076995919</v>
       </c>
     </row>
     <row r="74">
@@ -3009,33 +3011,33 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
       <c r="I74" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.01530541510055265</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3236155076995919</v>
       </c>
     </row>
     <row r="75">
@@ -3045,33 +3047,33 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G75" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
       <c r="I75" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.02629308271055245</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3403549824693598</v>
       </c>
     </row>
     <row r="76">
@@ -3081,33 +3083,33 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H76" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I76" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.02863647388970282</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.2932987421712845</v>
       </c>
     </row>
     <row r="77">
@@ -3117,31 +3119,33 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>19</v>
+        <v>200</v>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 16</t>
+        </is>
       </c>
       <c r="I77" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.04162659652250862</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3164305041573187</v>
       </c>
     </row>
     <row r="78">
@@ -3151,33 +3155,33 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 16</t>
         </is>
       </c>
       <c r="I78" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.04162659652250862</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3164305041573187</v>
       </c>
     </row>
     <row r="79">
@@ -3187,33 +3191,33 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
       <c r="I79" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.04205352008827011</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3237902748097025</v>
       </c>
     </row>
     <row r="80">
@@ -3223,33 +3227,33 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F80" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="G80" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
       <c r="I80" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.04276457942494261</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3237524373711079</v>
       </c>
     </row>
     <row r="81">
@@ -3259,33 +3263,33 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 11</t>
         </is>
       </c>
       <c r="I81" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.07694799784900856</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3251877410794177</v>
       </c>
     </row>
     <row r="82">
@@ -3295,31 +3299,33 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>24</v>
+        <v>120</v>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 23</t>
+        </is>
       </c>
       <c r="I82" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1003600498705965</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4110108594302249</v>
       </c>
     </row>
     <row r="83">
@@ -3329,33 +3335,33 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
       <c r="I83" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1145611218301763</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.2595767057380319</v>
       </c>
     </row>
     <row r="84">
@@ -3365,33 +3371,33 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
       <c r="I84" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1198768072624378</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4187501421090227</v>
       </c>
     </row>
     <row r="85">
@@ -3401,33 +3407,33 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 11</t>
         </is>
       </c>
       <c r="I85" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1253149477392733</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3679610995692143</v>
       </c>
     </row>
     <row r="86">
@@ -3440,30 +3446,30 @@
         <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I86" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1352707076315984</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.304971472715149</v>
       </c>
     </row>
     <row r="87">
@@ -3473,33 +3479,33 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I87" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1352707076315984</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.304971472715149</v>
       </c>
     </row>
     <row r="88">
@@ -3509,31 +3515,33 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>19</v>
+        <v>160</v>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 15</t>
+        </is>
       </c>
       <c r="I88" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1352707076315984</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.304971472715149</v>
       </c>
     </row>
     <row r="89">
@@ -3543,33 +3551,33 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I89" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1352707076315984</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.304971472715149</v>
       </c>
     </row>
     <row r="90">
@@ -3579,33 +3587,33 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G90" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>105</v>
-      </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
       <c r="I90" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1352707076315984</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.304971472715149</v>
       </c>
     </row>
     <row r="91">
@@ -3615,33 +3623,33 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 13</t>
         </is>
       </c>
       <c r="I91" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.140184493230497</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.3070204924077523</v>
       </c>
     </row>
     <row r="92">
@@ -3651,31 +3659,33 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>19</v>
+        <v>150</v>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>change speed to 25</t>
+        </is>
       </c>
       <c r="I92" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1815521610378948</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4833783943858395</v>
       </c>
     </row>
     <row r="93">
@@ -3685,33 +3695,33 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I93" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1815521610378948</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4833783943858395</v>
       </c>
     </row>
     <row r="94">
@@ -3721,33 +3731,33 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I94" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1815521610378948</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4833783943858395</v>
       </c>
     </row>
     <row r="95">
@@ -3757,33 +3767,33 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
       <c r="I95" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1815521610378948</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.4833783943858395</v>
       </c>
     </row>
     <row r="96">
@@ -3793,33 +3803,33 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H96" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I96" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.2008087087449118</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.2668409670656469</v>
       </c>
     </row>
     <row r="97">
@@ -3829,33 +3839,33 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I97" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.2809689802836705</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.218346952858487</v>
       </c>
     </row>
     <row r="98">
@@ -3865,33 +3875,33 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>95</v>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
       <c r="I98" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.2809689802836705</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.218346952858487</v>
       </c>
     </row>
     <row r="99">
@@ -3901,33 +3911,33 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="G99" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
       <c r="I99" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.333064193351808</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.2377621989862566</v>
       </c>
     </row>
     <row r="100">
@@ -3937,33 +3947,33 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D100" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E100" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="E100" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="F100" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H100" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
       <c r="I100" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.333064193351808</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.2377621989862566</v>
       </c>
     </row>
     <row r="101">
